--- a/Roster.xlsx
+++ b/Roster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Github\Beethoven-Class-IX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A26A0EF-8DAA-4EAD-9785-B2361AC9B3AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B90F9A2-D592-46FE-AC2B-DA5D7F7355CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>SENIN</t>
   </si>
@@ -201,9 +201,6 @@
     <t>SCIENCE</t>
   </si>
   <si>
-    <t>ROBOTIK</t>
-  </si>
-  <si>
     <t>MATH</t>
   </si>
   <si>
@@ -439,6 +436,119 @@
         <scheme val="minor"/>
       </rPr>
       <t>Olahraga</t>
+    </r>
+  </si>
+  <si>
+    <t>FOKUS UN</t>
+  </si>
+  <si>
+    <t>★Seragam</t>
+  </si>
+  <si>
+    <t>★Informasi Kelas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Gunakan bahasa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inggris</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Ketua kelas kita: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Febri</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Uang Kas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rp. 2.000/minggu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, dikutip oleh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iffa</t>
+    </r>
+  </si>
+  <si>
+    <t>★Jam Masuk dan Supervisi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Bendahara kita: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anggreani</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Seketaris kita: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sarah</t>
     </r>
   </si>
 </sst>
@@ -625,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,185 +791,13 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -956,6 +894,179 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -971,24 +1082,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="17" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="JAM" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SENIN" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SELASA" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RABU" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KAMIS" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="JUMAT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="JAM" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SENIN" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SELASA" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RABU" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KAMIS" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="JUMAT" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:B8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:B8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HARI" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CATATAN" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HARI" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CATATAN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1257,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1413,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
@@ -1322,7 +1433,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
@@ -1397,7 +1508,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,7 +1528,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,7 +1542,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -1449,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -1501,33 +1612,73 @@
       <c r="F13" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
+      <c r="A15" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>51</v>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Roster.xlsx
+++ b/Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Github\Beethoven-Class-IX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B90F9A2-D592-46FE-AC2B-DA5D7F7355CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB68455-526E-4D78-87DB-4481415C99A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +575,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,6 +800,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1370,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1496,7 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="12"/>
@@ -1573,7 +1584,7 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="12"/>

--- a/Roster.xlsx
+++ b/Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Github\Beethoven-Class-IX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB68455-526E-4D78-87DB-4481415C99A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E64D3-6875-48EE-945D-B1A30521F181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>SENIN</t>
   </si>
@@ -437,9 +437,6 @@
       </rPr>
       <t>Olahraga</t>
     </r>
-  </si>
-  <si>
-    <t>FOKUS UN</t>
   </si>
   <si>
     <t>★Seragam</t>
@@ -588,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +615,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -738,12 +741,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,9 +792,6 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,7 +811,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1394,64 +1429,64 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1461,76 +1496,76 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -1539,122 +1574,118 @@
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>53</v>
+      <c r="A15" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>52</v>
+      <c r="A22" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -1673,8 +1704,8 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>57</v>
+      <c r="A27" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">

--- a/Roster.xlsx
+++ b/Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Github\Beethoven-Class-IX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E64D3-6875-48EE-945D-B1A30521F181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7113E7B6-2F25-4656-9057-C30179061D9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,6 +518,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">• Seketaris kita: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sarah</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">• Bendahara kita: </t>
     </r>
     <r>
@@ -529,23 +545,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Anggreani</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Seketaris kita: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sarah</t>
+      <t>Iffa</t>
     </r>
   </si>
 </sst>
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,12 +1670,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">

--- a/Roster.xlsx
+++ b/Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Github\Beethoven-Class-IX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\GitHub\Beethoven-Class-IX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7113E7B6-2F25-4656-9057-C30179061D9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E647AD39-DB40-4F59-B14D-6DF67540BD27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>SENIN</t>
   </si>
@@ -518,6 +518,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">• Bendahara kita: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iffa</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">• Seketaris kita: </t>
     </r>
     <r>
@@ -529,24 +545,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Sarah</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Bendahara kita: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Iffa</t>
-    </r>
+      <t>Debrina</t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,6 +839,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +849,30 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1128,24 +1157,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="JAM" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SENIN" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SELASA" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RABU" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KAMIS" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="JUMAT" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="JAM" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SENIN" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SELASA" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RABU" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KAMIS" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="JUMAT" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{676E886E-C19B-4634-8612-D3DAEC7983F5}" name="#" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:B8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:B8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HARI" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CATATAN" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HARI" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CATATAN" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1414,18 +1444,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1444,8 +1478,11 @@
       <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1464,13 +1501,16 @@
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -1484,13 +1524,16 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -1501,11 +1544,14 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
@@ -1521,11 +1567,14 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -1536,8 +1585,9 @@
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1556,8 +1606,11 @@
       <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
@@ -1576,8 +1629,11 @@
       <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
@@ -1594,8 +1650,11 @@
         <v>19</v>
       </c>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -1612,8 +1671,11 @@
         <v>19</v>
       </c>
       <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
@@ -1624,8 +1686,9 @@
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
@@ -1638,8 +1701,11 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1652,13 +1718,16 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1670,12 +1739,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1724,8 +1793,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Roster.xlsx
+++ b/Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\GitHub\Beethoven-Class-IX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\Beethoven-Class-IX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E647AD39-DB40-4F59-B14D-6DF67540BD27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307B7D5E-1F5B-47BF-91AC-6FBAE2DABF72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,29 +856,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -959,6 +936,29 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1165,17 +1165,17 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RABU" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KAMIS" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="JUMAT" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{676E886E-C19B-4634-8612-D3DAEC7983F5}" name="#" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{676E886E-C19B-4634-8612-D3DAEC7983F5}" name="#" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:B8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:B8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HARI" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CATATAN" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HARI" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CATATAN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1450,7 +1450,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,8 +1541,8 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -1565,7 +1565,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1">
@@ -1667,8 +1667,8 @@
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="1">
